--- a/ClosedXML_Tests/Resource/Examples/ConditionalFormatting/CFStopIfTrue.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/ConditionalFormatting/CFStopIfTrue.xlsx
@@ -410,7 +410,7 @@
     <x:cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="greaterThan">
       <x:formula>5</x:formula>
     </x:cfRule>
-    <x:cfRule type="iconSet" priority="2" stopIfTrue="0">
+    <x:cfRule type="iconSet" priority="2">
       <x:iconSet iconSet="3TrafficLights2" showValue="0" reverse="1">
         <x:cfvo type="num" val="0" gte="1"/>
         <x:cfvo type="num" val="2" gte="1"/>

--- a/ClosedXML_Tests/Resource/Examples/ConditionalFormatting/CFStopIfTrue.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/ConditionalFormatting/CFStopIfTrue.xlsx
@@ -72,22 +72,6 @@
   <x:cellStyles count="1">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
   </x:cellStyles>
-  <x:dxfs count="2">
-    <x:dxf>
-      <x:font/>
-      <x:fill>
-        <x:patternFill/>
-      </x:fill>
-      <x:border/>
-    </x:dxf>
-    <x:dxf>
-      <x:font/>
-      <x:fill>
-        <x:patternFill patternType="solid"/>
-      </x:fill>
-      <x:border/>
-    </x:dxf>
-  </x:dxfs>
 </x:styleSheet>
 </file>
 
@@ -407,7 +391,7 @@
     </x:row>
   </x:sheetData>
   <x:conditionalFormatting sqref="A1:A4">
-    <x:cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="greaterThan">
+    <x:cfRule type="cellIs" priority="1" stopIfTrue="1" operator="greaterThan">
       <x:formula>5</x:formula>
     </x:cfRule>
     <x:cfRule type="iconSet" priority="2">

--- a/ClosedXML_Tests/Resource/Examples/ConditionalFormatting/CFStopIfTrue.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/ConditionalFormatting/CFStopIfTrue.xlsx
@@ -83,7 +83,9 @@
     <x:dxf>
       <x:font/>
       <x:fill>
-        <x:patternFill patternType="solid"/>
+        <x:patternFill patternType="solid">
+          <x:fgColor auto="1"/>
+        </x:patternFill>
       </x:fill>
       <x:border/>
     </x:dxf>
